--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Home_NavBar.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Home_NavBar.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563353F4-0329-4A16-8315-7FE913BA7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27238637-D765-476F-A2F9-EE7B5BC1917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,8 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -581,115 +580,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,123 +687,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -831,15 +790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009AB4AFD5B95DA74C9A5B41FD6646044C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d07883480de02431cd215bfd24f28e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -953,6 +903,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -960,14 +919,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6C762D-9E96-46B8-BDB9-AF08A11E921C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF3E293-4249-4A9C-8914-31A1B2518B58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -983,6 +934,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6C762D-9E96-46B8-BDB9-AF08A11E921C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC96A538-C8C2-434A-A486-4450ECAF9D28}">
   <ds:schemaRefs>
